--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:32:32+00:00</t>
+    <t>2022-08-23T22:37:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T22:37:21+00:00</t>
+    <t>2022-08-24T23:51:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T23:51:36+00:00</t>
+    <t>2022-09-01T16:06:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T16:06:59+00:00</t>
+    <t>2022-09-01T16:21:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T16:21:50+00:00</t>
+    <t>2022-09-01T16:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T16:52:18+00:00</t>
+    <t>2022-09-01T17:06:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T17:06:09+00:00</t>
+    <t>2022-09-01T19:48:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="264">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T19:48:46+00:00</t>
+    <t>2022-09-27T22:39:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,204 +271,208 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>OperationOutcome.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>OperationOutcome.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>OperationOutcome.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>OperationOutcome.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>OperationOutcome.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>OperationOutcome.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>OperationOutcome.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>OperationOutcome.issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>A single issue associated with the action</t>
+  </si>
+  <si>
+    <t>An error, warning, or information message that results from a system action.</t>
+  </si>
+  <si>
+    <t>AcknowledgementDetail or Observation[classCode="ALRT" and moodCode="EVN"]</t>
+  </si>
+  <si>
+    <t>ERR</t>
+  </si>
+  <si>
+    <t>OperationOutcome.issue.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>OperationOutcome.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>OperationOutcome.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>OperationOutcome.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>OperationOutcome.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>OperationOutcome.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>OperationOutcome.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>OperationOutcome.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>OperationOutcome.issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>A single issue associated with the action</t>
-  </si>
-  <si>
-    <t>An error, warning, or information message that results from a system action.</t>
-  </si>
-  <si>
-    <t>AcknowledgementDetail or Observation[classCode="ALRT" and moodCode="EVN"]</t>
-  </si>
-  <si>
-    <t>ERR</t>
-  </si>
-  <si>
-    <t>OperationOutcome.issue.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2379,13 +2383,13 @@
         <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2436,7 +2440,7 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>74</v>
@@ -2451,7 +2455,7 @@
         <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>73</v>
@@ -2459,7 +2463,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2488,7 +2492,7 @@
         <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>131</v>
@@ -2541,7 +2545,7 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
@@ -2556,7 +2560,7 @@
         <v>133</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>73</v>
@@ -2564,11 +2568,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2590,10 +2594,10 @@
         <v>128</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M14" t="s" s="2">
         <v>131</v>
@@ -2648,7 +2652,7 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -2671,7 +2675,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2697,16 +2701,16 @@
         <v>102</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>73</v>
@@ -2731,13 +2735,13 @@
         <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>73</v>
@@ -2755,7 +2759,7 @@
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>82</v>
@@ -2770,15 +2774,15 @@
         <v>94</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2804,14 +2808,14 @@
         <v>102</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>73</v>
@@ -2836,13 +2840,13 @@
         <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>73</v>
@@ -2860,7 +2864,7 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>82</v>
@@ -2875,15 +2879,15 @@
         <v>94</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2906,16 +2910,16 @@
         <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2941,13 +2945,13 @@
         <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>73</v>
@@ -2965,7 +2969,7 @@
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>74</v>
@@ -2980,15 +2984,15 @@
         <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3011,13 +3015,13 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3068,7 +3072,7 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>74</v>
@@ -3083,7 +3087,7 @@
         <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>73</v>
@@ -3091,7 +3095,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3120,7 +3124,7 @@
         <v>129</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>131</v>
@@ -3161,19 +3165,19 @@
         <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -3188,7 +3192,7 @@
         <v>133</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>73</v>
@@ -3196,7 +3200,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3219,19 +3223,19 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>73</v>
@@ -3280,7 +3284,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3295,15 +3299,15 @@
         <v>94</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3326,13 +3330,13 @@
         <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3383,7 +3387,7 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>74</v>
@@ -3398,7 +3402,7 @@
         <v>73</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>73</v>
@@ -3406,7 +3410,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3435,7 +3439,7 @@
         <v>129</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>131</v>
@@ -3476,19 +3480,19 @@
         <v>73</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3503,7 +3507,7 @@
         <v>133</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>73</v>
@@ -3511,7 +3515,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3537,16 +3541,16 @@
         <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>73</v>
@@ -3595,7 +3599,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>74</v>
@@ -3610,15 +3614,15 @@
         <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3641,16 +3645,16 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3700,7 +3704,7 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -3715,15 +3719,15 @@
         <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3749,14 +3753,14 @@
         <v>102</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>73</v>
@@ -3805,7 +3809,7 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>74</v>
@@ -3820,15 +3824,15 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3851,17 +3855,17 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>73</v>
@@ -3910,7 +3914,7 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>74</v>
@@ -3925,15 +3929,15 @@
         <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3956,19 +3960,19 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>73</v>
@@ -4017,7 +4021,7 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>74</v>
@@ -4032,15 +4036,15 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4063,19 +4067,19 @@
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>73</v>
@@ -4124,7 +4128,7 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>74</v>
@@ -4139,15 +4143,15 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4170,16 +4174,16 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4229,7 +4233,7 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -4244,15 +4248,15 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4275,19 +4279,19 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4336,7 +4340,7 @@
         <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -4351,15 +4355,15 @@
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4382,19 +4386,19 @@
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>73</v>
@@ -4443,7 +4447,7 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -4458,10 +4462,10 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:39:14+00:00</t>
+    <t>2022-10-05T22:20:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="263">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T22:20:29+00:00</t>
+    <t>2022-10-11T16:14:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -253,10 +253,6 @@
   </si>
   <si>
     <t>Can result from the failure of a REST call or be part of the response message returned from a request message.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Grouping is handled through multiple repetitions from whatever context references the outcomes (no specific grouper required)</t>
@@ -1406,10 +1402,10 @@
         <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>73</v>
@@ -1417,7 +1413,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1428,28 +1424,28 @@
         <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1499,13 +1495,13 @@
         <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>73</v>
@@ -1522,7 +1518,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1533,25 +1529,25 @@
         <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1602,19 +1598,19 @@
         <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>73</v>
@@ -1625,7 +1621,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1636,28 +1632,28 @@
         <v>74</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1707,19 +1703,19 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>73</v>
@@ -1730,7 +1726,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1741,7 +1737,7 @@
         <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -1753,16 +1749,16 @@
         <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1788,43 +1784,43 @@
         <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>109</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>73</v>
@@ -1835,18 +1831,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>73</v>
@@ -1858,16 +1854,16 @@
         <v>73</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1917,22 +1913,22 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>73</v>
@@ -1940,11 +1936,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1963,16 +1959,16 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2022,7 +2018,7 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>74</v>
@@ -2037,7 +2033,7 @@
         <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>73</v>
@@ -2045,11 +2041,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2068,16 +2064,16 @@
         <v>73</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2127,7 +2123,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -2139,10 +2135,10 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>73</v>
@@ -2150,11 +2146,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2167,25 +2163,25 @@
         <v>73</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>73</v>
@@ -2234,7 +2230,7 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>74</v>
@@ -2246,10 +2242,10 @@
         <v>73</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>73</v>
@@ -2257,7 +2253,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2265,7 +2261,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>75</v>
@@ -2277,16 +2273,16 @@
         <v>73</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2337,10 +2333,10 @@
         <v>73</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2349,18 +2345,18 @@
         <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>144</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2371,7 +2367,7 @@
         <v>74</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>73</v>
@@ -2383,13 +2379,13 @@
         <v>73</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2440,22 +2436,22 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>73</v>
@@ -2463,11 +2459,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2486,16 +2482,16 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2545,7 +2541,7 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>74</v>
@@ -2557,10 +2553,10 @@
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>73</v>
@@ -2568,11 +2564,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2585,25 +2581,25 @@
         <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>73</v>
@@ -2652,7 +2648,7 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -2664,10 +2660,10 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>73</v>
@@ -2675,7 +2671,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2683,34 +2679,34 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>73</v>
@@ -2735,54 +2731,54 @@
         <v>73</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
+      <c r="AK15" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2790,32 +2786,32 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>73</v>
@@ -2840,54 +2836,54 @@
         <v>73</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2895,31 +2891,31 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="H17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2945,54 +2941,54 @@
         <v>73</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>185</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3003,7 +2999,7 @@
         <v>74</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>73</v>
@@ -3015,13 +3011,13 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3072,22 +3068,22 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>73</v>
@@ -3095,11 +3091,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3118,16 +3114,16 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="L19" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3165,19 +3161,19 @@
         <v>73</v>
       </c>
       <c r="AA19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AB19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AB19" t="s" s="2">
+      <c r="AC19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AC19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="AE19" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -3189,10 +3185,10 @@
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>73</v>
@@ -3200,7 +3196,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3208,34 +3204,34 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="H20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>73</v>
@@ -3284,7 +3280,7 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>74</v>
@@ -3296,18 +3292,18 @@
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3318,7 +3314,7 @@
         <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>73</v>
@@ -3330,13 +3326,13 @@
         <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3387,22 +3383,22 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>73</v>
@@ -3410,11 +3406,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3433,16 +3429,16 @@
         <v>73</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="L22" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3480,19 +3476,19 @@
         <v>73</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AB22" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AB22" t="s" s="2">
+      <c r="AC22" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD22" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AC22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="AE22" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>74</v>
@@ -3504,10 +3500,10 @@
         <v>73</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>73</v>
@@ -3515,7 +3511,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3523,34 +3519,34 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="H23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>73</v>
@@ -3599,30 +3595,30 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="AK23" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3633,28 +3629,28 @@
         <v>74</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3704,30 +3700,30 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
+      <c r="AK24" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3735,32 +3731,32 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="H25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>73</v>
@@ -3809,30 +3805,30 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3843,29 +3839,29 @@
         <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>73</v>
@@ -3914,30 +3910,30 @@
         <v>73</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AK26" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>229</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3948,31 +3944,31 @@
         <v>74</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>73</v>
@@ -4021,30 +4017,30 @@
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4052,34 +4048,34 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G28" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="H28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>73</v>
@@ -4128,30 +4124,30 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>246</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4162,28 +4158,28 @@
         <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4233,30 +4229,30 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>252</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4276,22 +4272,22 @@
         <v>73</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>73</v>
@@ -4340,7 +4336,7 @@
         <v>73</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>74</v>
@@ -4352,18 +4348,18 @@
         <v>73</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>259</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4383,22 +4379,22 @@
         <v>73</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="N31" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>73</v>
@@ -4447,7 +4443,7 @@
         <v>73</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>74</v>
@@ -4459,13 +4455,13 @@
         <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-11T16:14:09+00:00</t>
+    <t>2022-10-17T23:41:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-17T23:41:26+00:00</t>
+    <t>2022-10-27T19:03:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T19:03:31+00:00</t>
+    <t>2022-10-27T21:56:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T21:56:37+00:00</t>
+    <t>2022-10-28T23:08:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-28T23:08:22+00:00</t>
+    <t>2022-10-31T19:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T19:28:42+00:00</t>
+    <t>2022-11-01T15:06:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-01T15:06:35+00:00</t>
+    <t>2022-11-14T22:17:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T22:17:10+00:00</t>
+    <t>2022-11-14T22:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T22:35:25+00:00</t>
+    <t>2022-11-15T19:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T19:54:41+00:00</t>
+    <t>2022-11-16T00:01:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T00:01:38+00:00</t>
+    <t>2022-11-16T00:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T00:10:00+00:00</t>
+    <t>2022-11-16T00:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T00:10:48+00:00</t>
+    <t>2022-11-17T20:58:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T20:58:34+00:00</t>
+    <t>2022-11-17T21:31:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T21:31:13+00:00</t>
+    <t>2022-11-17T21:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T21:33:43+00:00</t>
+    <t>2022-11-17T22:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T22:26:34+00:00</t>
+    <t>2022-11-17T23:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T23:34:37+00:00</t>
+    <t>2022-11-18T20:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T20:35:33+00:00</t>
+    <t>2022-11-29T21:08:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.9.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T21:08:03+00:00</t>
+    <t>2022-11-30T16:25:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T16:25:41+00:00</t>
+    <t>2022-11-30T17:04:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T17:04:23+00:00</t>
+    <t>2022-11-30T20:32:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-operation-outcome</t>
+    <t>http://hlth.gov.bc.ca/fhir/provider/StructureDefinition/bc-operation-outcome</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:32:54+00:00</t>
+    <t>2022-11-30T20:54:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:54:53+00:00</t>
+    <t>2022-11-30T21:55:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.9</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T21:55:32+00:00</t>
+    <t>2022-12-01T19:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:15:43+00:00</t>
+    <t>2022-12-12T23:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-12T23:25:59+00:00</t>
+    <t>2022-12-13T16:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-13T16:34:13+00:00</t>
+    <t>2022-12-13T17:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-13T17:07:06+00:00</t>
+    <t>2022-12-13T19:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$31</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="264">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-13T19:55:00+00:00</t>
+    <t>2022-12-16T17:01:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -1145,7 +1148,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK31"/>
+  <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1155,42 +1158,42 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="49.7578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.7578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.66015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="44.83203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.24609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="44.83203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.24609375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="253.33203125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="45.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="253.33203125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1305,36 +1308,39 @@
       <c r="AK1" t="s" s="1">
         <v>72</v>
       </c>
+      <c r="AL1" t="s" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>77</v>
@@ -1342,98 +1348,101 @@
       <c r="M2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AG2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>83</v>
@@ -1447,101 +1456,104 @@
       <c r="M3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>90</v>
@@ -1549,102 +1561,105 @@
       <c r="L4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>96</v>
@@ -1655,101 +1670,104 @@
       <c r="M5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>102</v>
@@ -1760,31 +1778,31 @@
       <c r="M6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>106</v>
@@ -1793,68 +1811,71 @@
         <v>107</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>112</v>
@@ -1865,101 +1886,104 @@
       <c r="M7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>73</v>
+        <v>117</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>120</v>
@@ -1970,101 +1994,104 @@
       <c r="M8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>128</v>
@@ -2075,208 +2102,214 @@
       <c r="M9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>140</v>
@@ -2284,102 +2317,105 @@
       <c r="L11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>143</v>
       </c>
+      <c r="AL11" t="s" s="2">
+        <v>144</v>
+      </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>146</v>
@@ -2387,317 +2423,326 @@
       <c r="L12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>73</v>
+        <v>150</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>73</v>
+        <v>150</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B14" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>160</v>
@@ -2709,29 +2754,29 @@
         <v>162</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
         <v>164</v>
@@ -2740,173 +2785,179 @@
         <v>165</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>167</v>
       </c>
+      <c r="AL15" t="s" s="2">
+        <v>168</v>
+      </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>171</v>
       </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="Y16" t="s" s="2">
         <v>173</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>175</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="AL16" t="s" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>178</v>
@@ -2917,31 +2968,31 @@
       <c r="M17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
         <v>182</v>
@@ -2950,68 +3001,71 @@
         <v>183</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>184</v>
+        <v>175</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>185</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>146</v>
@@ -3019,207 +3073,213 @@
       <c r="L18" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>73</v>
+        <v>150</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>128</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
         <v>188</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>150</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>192</v>
@@ -3234,99 +3294,102 @@
         <v>195</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>74</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>198</v>
       </c>
+      <c r="AL20" t="s" s="2">
+        <v>199</v>
+      </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>146</v>
@@ -3334,210 +3397,216 @@
       <c r="L21" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M21" s="2"/>
+      <c r="M21" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>73</v>
+        <v>150</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>128</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
         <v>188</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>150</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>203</v>
@@ -3549,102 +3618,105 @@
         <v>205</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>208</v>
       </c>
+      <c r="AL23" t="s" s="2">
+        <v>209</v>
+      </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>211</v>
@@ -3652,311 +3724,320 @@
       <c r="M24" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N24" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>215</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="AL24" t="s" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>219</v>
       </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>221</v>
+        <v>175</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>222</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>225</v>
       </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>227</v>
+        <v>94</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>228</v>
       </c>
+      <c r="AL26" t="s" s="2">
+        <v>229</v>
+      </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>231</v>
@@ -3971,102 +4052,105 @@
         <v>234</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>237</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="AL27" t="s" s="2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>240</v>
@@ -4078,102 +4162,105 @@
         <v>242</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>245</v>
       </c>
+      <c r="AL28" t="s" s="2">
+        <v>246</v>
+      </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>247</v>
+        <v>146</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>248</v>
@@ -4181,104 +4268,107 @@
       <c r="M29" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="N29" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>251</v>
       </c>
+      <c r="AL29" t="s" s="2">
+        <v>252</v>
+      </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>253</v>
+        <v>146</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>254</v>
@@ -4290,102 +4380,105 @@
         <v>256</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>257</v>
+        <v>94</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>258</v>
       </c>
+      <c r="AL30" t="s" s="2">
+        <v>259</v>
+      </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>146</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>261</v>
@@ -4394,78 +4487,81 @@
         <v>262</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>257</v>
+        <v>94</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>258</v>
       </c>
+      <c r="AL31" t="s" s="2">
+        <v>259</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK31">
+  <autoFilter ref="A1:AL31">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T17:01:23+00:00</t>
+    <t>2022-12-16T22:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T22:41:35+00:00</t>
+    <t>2022-12-19T22:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T22:53:23+00:00</t>
+    <t>2022-12-20T17:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T17:05:36+00:00</t>
+    <t>2022-12-20T21:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T21:28:56+00:00</t>
+    <t>2022-12-20T23:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T23:28:16+00:00</t>
+    <t>2022-12-20T23:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="265">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T23:39:21+00:00</t>
+    <t>2023-01-17T22:49:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Information about the success/failure of an action</t>
@@ -1340,16 +1344,16 @@
         <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1414,7 +1418,7 @@
         <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>74</v>
@@ -1422,10 +1426,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1436,7 +1440,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1445,19 +1449,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1507,13 +1511,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1530,10 +1534,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1544,7 +1548,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -1553,16 +1557,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1613,19 +1617,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -1636,10 +1640,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1650,28 +1654,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1721,19 +1725,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -1744,10 +1748,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1758,7 +1762,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -1770,16 +1774,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1805,13 +1809,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -1829,19 +1833,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -1852,21 +1856,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -1878,16 +1882,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1937,22 +1941,22 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -1960,14 +1964,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1986,16 +1990,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2045,7 +2049,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2060,7 +2064,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2068,14 +2072,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2094,16 +2098,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2153,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2165,10 +2169,10 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>74</v>
@@ -2176,14 +2180,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2196,25 +2200,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2263,7 +2267,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2275,10 +2279,10 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>74</v>
@@ -2286,10 +2290,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2297,7 +2301,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>76</v>
@@ -2309,16 +2313,16 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2369,10 +2373,10 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>76</v>
@@ -2384,18 +2388,18 @@
         <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2406,7 +2410,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2418,13 +2422,13 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2475,13 +2479,13 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>74</v>
@@ -2490,7 +2494,7 @@
         <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -2498,14 +2502,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2524,16 +2528,16 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2583,7 +2587,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2595,10 +2599,10 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -2606,14 +2610,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2626,25 +2630,25 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>74</v>
@@ -2693,7 +2697,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -2705,10 +2709,10 @@
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -2716,10 +2720,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2727,10 +2731,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -2739,22 +2743,22 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -2779,13 +2783,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -2803,33 +2807,33 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2837,10 +2841,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -2849,20 +2853,20 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -2887,13 +2891,13 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -2911,33 +2915,33 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2945,31 +2949,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2995,13 +2999,13 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>74</v>
@@ -3019,33 +3023,33 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3056,7 +3060,7 @@
         <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3068,13 +3072,13 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3125,13 +3129,13 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
@@ -3140,7 +3144,7 @@
         <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -3148,14 +3152,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3174,16 +3178,16 @@
         <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3221,19 +3225,19 @@
         <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3245,10 +3249,10 @@
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
@@ -3256,10 +3260,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3267,34 +3271,34 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -3343,7 +3347,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3355,21 +3359,21 @@
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3380,7 +3384,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3392,13 +3396,13 @@
         <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3449,13 +3453,13 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
@@ -3464,7 +3468,7 @@
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3472,14 +3476,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3498,16 +3502,16 @@
         <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3545,19 +3549,19 @@
         <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3569,10 +3573,10 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3580,10 +3584,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3591,34 +3595,34 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -3667,33 +3671,33 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3704,7 +3708,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -3713,19 +3717,19 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3775,33 +3779,33 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3809,32 +3813,32 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -3883,33 +3887,33 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3920,7 +3924,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -3929,20 +3933,20 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -3991,33 +3995,33 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4028,7 +4032,7 @@
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4037,22 +4041,22 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>74</v>
@@ -4101,33 +4105,33 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4135,34 +4139,34 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4211,33 +4215,33 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4248,7 +4252,7 @@
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4257,19 +4261,19 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4319,33 +4323,33 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4365,22 +4369,22 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
@@ -4429,7 +4433,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4441,21 +4445,21 @@
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4475,22 +4479,22 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -4539,7 +4543,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -4551,13 +4555,13 @@
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T22:49:54+00:00</t>
+    <t>2023-01-23T22:02:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T22:02:59+00:00</t>
+    <t>2023-01-24T00:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T00:02:12+00:00</t>
+    <t>2023-01-26T00:24:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-26T00:24:40+00:00</t>
+    <t>2023-01-26T22:19:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-26T22:19:10+00:00</t>
+    <t>2023-01-31T16:52:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-31T16:52:42+00:00</t>
+    <t>2023-02-08T21:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T21:16:12+00:00</t>
+    <t>2023-02-08T21:47:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T21:47:45+00:00</t>
+    <t>2023-02-21T21:05:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:05:43+00:00</t>
+    <t>2023-02-21T22:17:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T22:17:26+00:00</t>
+    <t>2023-02-22T23:59:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T23:59:38+00:00</t>
+    <t>2023-02-23T18:05:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T18:05:52+00:00</t>
+    <t>2023-02-23T19:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T19:08:00+00:00</t>
+    <t>2023-02-23T19:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T19:09:50+00:00</t>
+    <t>2023-03-13T17:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T17:50:39+00:00</t>
+    <t>2023-03-16T20:48:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T20:48:21+00:00</t>
+    <t>2023-03-23T17:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T17:35:31+00:00</t>
+    <t>2023-03-23T17:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T17:54:25+00:00</t>
+    <t>2023-03-23T23:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T23:03:49+00:00</t>
+    <t>2023-03-24T16:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T20:46:29+00:00</t>
+    <t>2023-03-31T19:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T19:02:02+00:00</t>
+    <t>2023-04-13T21:33:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-13T21:33:55+00:00</t>
+    <t>2023-04-13T22:55:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-13T22:55:41+00:00</t>
+    <t>2023-04-18T21:17:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-18T21:17:28+00:00</t>
+    <t>2023-04-19T20:43:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T20:43:06+00:00</t>
+    <t>2023-04-19T22:41:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T22:41:00+00:00</t>
+    <t>2023-04-21T17:23:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T17:23:16+00:00</t>
+    <t>2023-04-21T17:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T17:23:46+00:00</t>
+    <t>2023-04-21T21:33:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T21:33:06+00:00</t>
+    <t>2023-05-05T19:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$30</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="227">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T19:53:30+00:00</t>
+    <t>2023-06-12T18:37:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -124,120 +124,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -956,10 +842,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1152,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL31"/>
+  <dimension ref="A1:AL30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1163,13 +1049,11 @@
   <cols>
     <col min="1" max="1" width="49.7578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.7578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="17.66015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1177,581 +1061,574 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="44.83203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="44.24609375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="253.33203125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="I1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>73</v>
+      <c r="AL1" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>62</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1759,2813 +1636,2705 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>145</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="P13" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>74</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>186</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>198</v>
+        <v>112</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>200</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>74</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>210</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P24" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>217</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>223</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>230</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>109</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>239</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="P29" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="31" hidden="true">
-      <c r="A31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="P31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL31">
+  <autoFilter ref="A1:AL30">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4575,7 +4344,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI30">
+  <conditionalFormatting sqref="A2:AI29">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T18:37:27+00:00</t>
+    <t>2023-06-12T22:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T22:10:20+00:00</t>
+    <t>2023-06-12T22:51:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T22:51:11+00:00</t>
+    <t>2023-06-22T17:12:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T17:12:55+00:00</t>
+    <t>2023-08-10T18:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T18:02:33+00:00</t>
+    <t>2023-08-11T20:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-11T20:09:37+00:00</t>
+    <t>2023-08-17T21:34:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T21:34:48+00:00</t>
+    <t>2023-08-21T18:39:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T18:39:03+00:00</t>
+    <t>2023-08-22T18:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="228">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T18:08:48+00:00</t>
+    <t>2023-08-22T19:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>Can result from the failure of a REST call or be part of the response message returned from a request message.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Grouping is handled through multiple repetitions from whatever context references the outcomes (no specific grouper required)</t>
@@ -1184,10 +1188,10 @@
         <v>36</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>36</v>
@@ -1195,10 +1199,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1209,7 +1213,7 @@
         <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>36</v>
@@ -1218,19 +1222,19 @@
         <v>36</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1280,13 +1284,13 @@
         <v>36</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>36</v>
@@ -1303,10 +1307,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1317,7 +1321,7 @@
         <v>37</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>36</v>
@@ -1326,16 +1330,16 @@
         <v>36</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1386,19 +1390,19 @@
         <v>36</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>36</v>
@@ -1409,10 +1413,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1423,28 +1427,28 @@
         <v>37</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1494,19 +1498,19 @@
         <v>36</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>36</v>
@@ -1517,10 +1521,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1531,7 +1535,7 @@
         <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>36</v>
@@ -1543,16 +1547,16 @@
         <v>36</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1578,13 +1582,13 @@
         <v>36</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>36</v>
@@ -1602,19 +1606,19 @@
         <v>36</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>36</v>
@@ -1625,21 +1629,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>36</v>
@@ -1651,16 +1655,16 @@
         <v>36</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1710,22 +1714,22 @@
         <v>36</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>36</v>
@@ -1733,14 +1737,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1759,16 +1763,16 @@
         <v>36</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1818,7 +1822,7 @@
         <v>36</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>37</v>
@@ -1833,7 +1837,7 @@
         <v>36</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>36</v>
@@ -1841,14 +1845,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1867,16 +1871,16 @@
         <v>36</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1926,7 +1930,7 @@
         <v>36</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>37</v>
@@ -1938,10 +1942,10 @@
         <v>36</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>36</v>
@@ -1949,14 +1953,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1969,25 +1973,25 @@
         <v>36</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>36</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>36</v>
@@ -2036,7 +2040,7 @@
         <v>36</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>37</v>
@@ -2048,10 +2052,10 @@
         <v>36</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>36</v>
@@ -2059,10 +2063,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2070,7 +2074,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>38</v>
@@ -2082,16 +2086,16 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2142,10 +2146,10 @@
         <v>36</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>38</v>
@@ -2154,21 +2158,21 @@
         <v>36</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2179,7 +2183,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>36</v>
@@ -2191,13 +2195,13 @@
         <v>36</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2248,13 +2252,13 @@
         <v>36</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>36</v>
@@ -2263,7 +2267,7 @@
         <v>36</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>36</v>
@@ -2271,14 +2275,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2297,16 +2301,16 @@
         <v>36</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2356,7 +2360,7 @@
         <v>36</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>37</v>
@@ -2368,10 +2372,10 @@
         <v>36</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>36</v>
@@ -2379,14 +2383,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2399,25 +2403,25 @@
         <v>36</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>36</v>
@@ -2466,7 +2470,7 @@
         <v>36</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>37</v>
@@ -2478,10 +2482,10 @@
         <v>36</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>36</v>
@@ -2489,10 +2493,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2500,10 +2504,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>36</v>
@@ -2512,22 +2516,22 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>36</v>
@@ -2552,13 +2556,13 @@
         <v>36</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>36</v>
@@ -2576,33 +2580,33 @@
         <v>36</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2610,10 +2614,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>36</v>
@@ -2622,20 +2626,20 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>36</v>
@@ -2660,13 +2664,13 @@
         <v>36</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>36</v>
@@ -2684,33 +2688,33 @@
         <v>36</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2718,31 +2722,31 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -2768,13 +2772,13 @@
         <v>36</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>36</v>
@@ -2792,33 +2796,33 @@
         <v>36</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2829,7 +2833,7 @@
         <v>37</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>36</v>
@@ -2841,13 +2845,13 @@
         <v>36</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2898,13 +2902,13 @@
         <v>36</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>36</v>
@@ -2913,7 +2917,7 @@
         <v>36</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>36</v>
@@ -2921,14 +2925,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -2947,16 +2951,16 @@
         <v>36</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2994,19 +2998,19 @@
         <v>36</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
@@ -3018,10 +3022,10 @@
         <v>36</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>36</v>
@@ -3029,10 +3033,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3040,34 +3044,34 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>36</v>
@@ -3116,7 +3120,7 @@
         <v>36</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>37</v>
@@ -3128,21 +3132,21 @@
         <v>36</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3153,7 +3157,7 @@
         <v>37</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>36</v>
@@ -3165,13 +3169,13 @@
         <v>36</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3222,13 +3226,13 @@
         <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>36</v>
@@ -3237,7 +3241,7 @@
         <v>36</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>36</v>
@@ -3245,14 +3249,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3271,16 +3275,16 @@
         <v>36</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3318,19 +3322,19 @@
         <v>36</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
@@ -3342,10 +3346,10 @@
         <v>36</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>36</v>
@@ -3353,10 +3357,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3364,34 +3368,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>36</v>
@@ -3440,33 +3444,33 @@
         <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3477,7 +3481,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>36</v>
@@ -3486,19 +3490,19 @@
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3548,33 +3552,33 @@
         <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3582,32 +3586,32 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>36</v>
@@ -3656,33 +3660,33 @@
         <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3693,7 +3697,7 @@
         <v>37</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>36</v>
@@ -3702,20 +3706,20 @@
         <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>36</v>
@@ -3764,33 +3768,33 @@
         <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3801,7 +3805,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>36</v>
@@ -3810,22 +3814,22 @@
         <v>36</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>36</v>
@@ -3874,33 +3878,33 @@
         <v>36</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3908,34 +3912,34 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>36</v>
@@ -3984,33 +3988,33 @@
         <v>36</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4021,7 +4025,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>36</v>
@@ -4030,19 +4034,19 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4092,33 +4096,33 @@
         <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4138,22 +4142,22 @@
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>36</v>
@@ -4202,7 +4206,7 @@
         <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
@@ -4214,21 +4218,21 @@
         <v>36</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4248,22 +4252,22 @@
         <v>36</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>36</v>
@@ -4312,7 +4316,7 @@
         <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
@@ -4324,13 +4328,13 @@
         <v>36</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T19:47:16+00:00</t>
+    <t>2023-08-22T20:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T20:07:10+00:00</t>
+    <t>2023-08-22T20:25:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T20:25:35+00:00</t>
+    <t>2023-08-22T22:16:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T22:16:03+00:00</t>
+    <t>2023-08-25T21:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T21:39:06+00:00</t>
+    <t>2023-08-25T21:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T21:46:31+00:00</t>
+    <t>2023-09-06T17:45:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T17:45:01+00:00</t>
+    <t>2023-09-06T23:35:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T23:35:56+00:00</t>
+    <t>2023-09-07T20:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T20:12:30+00:00</t>
+    <t>2023-09-07T21:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T21:19:16+00:00</t>
+    <t>2023-09-08T21:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-08T21:32:00+00:00</t>
+    <t>2023-09-29T19:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T19:19:38+00:00</t>
+    <t>2023-10-03T05:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T05:01:09+00:00</t>
+    <t>2023-10-03T20:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T20:58:36+00:00</t>
+    <t>2023-10-16T19:05:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T19:05:06+00:00</t>
+    <t>2023-10-18T17:43:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T17:43:06+00:00</t>
+    <t>2023-10-19T20:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T20:14:51+00:00</t>
+    <t>2023-10-23T19:17:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-23T19:17:15+00:00</t>
+    <t>2023-10-26T20:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T20:17:55+00:00</t>
+    <t>2023-10-30T17:17:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T17:17:37+00:00</t>
+    <t>2023-11-02T16:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$31</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="266">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T16:59:26+00:00</t>
+    <t>2023-11-07T20:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -124,6 +124,120 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
     <t/>
@@ -1042,7 +1156,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL30"/>
+  <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1053,11 +1167,13 @@
   <cols>
     <col min="1" max="1" width="49.7578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.7578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="17.66015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1065,3280 +1181,3395 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="44.83203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="44.24609375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="253.33203125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="45.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AL1" t="s" s="2">
-        <v>36</v>
+      <c r="J1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>73</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>63</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>36</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>132</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O15" t="s" s="2">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>139</v>
+        <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>149</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>36</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AC18" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AL18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>36</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AC21" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AL21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>173</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>180</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>139</v>
+        <v>217</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>186</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>193</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>202</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>110</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>223</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>223</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL30">
+  <autoFilter ref="A1:AL31">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4348,7 +4579,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI29">
+  <conditionalFormatting sqref="A2:AI30">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-07T20:41:49+00:00</t>
+    <t>2023-11-09T22:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T22:35:19+00:00</t>
+    <t>2024-01-31T21:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T21:18:40+00:00</t>
+    <t>2024-01-31T22:27:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T22:27:42+00:00</t>
+    <t>2024-02-13T00:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T00:30:38+00:00</t>
+    <t>2024-02-15T18:07:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T18:07:20+00:00</t>
+    <t>2024-02-22T00:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T00:24:28+00:00</t>
+    <t>2024-04-16T19:17:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T19:17:03+00:00</t>
+    <t>2024-04-16T21:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:05:39+00:00</t>
+    <t>2024-04-28T01:45:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T01:45:29+00:00</t>
+    <t>2024-05-14T23:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T23:21:03+00:00</t>
+    <t>2024-05-15T07:20:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T07:20:40+00:00</t>
+    <t>2024-05-15T07:42:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T07:42:26+00:00</t>
+    <t>2024-05-31T17:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T17:22:32+00:00</t>
+    <t>2024-05-31T18:09:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T18:09:22+00:00</t>
+    <t>2024-05-31T19:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T19:19:35+00:00</t>
+    <t>2024-05-31T19:26:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T19:26:05+00:00</t>
+    <t>2024-05-31T22:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T22:41:33+00:00</t>
+    <t>2024-05-31T22:41:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T22:41:54+00:00</t>
+    <t>2024-06-10T23:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T23:17:00+00:00</t>
+    <t>2024-06-11T17:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-operation-outcome.xlsx
+++ b/StructureDefinition-bc-operation-outcome.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T17:15:14+00:00</t>
+    <t>2024-06-11T17:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
